--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Ravens/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Ravens/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
